--- a/ExcelRAddIn/Tests/Descriptive Statistics.xlsx
+++ b/ExcelRAddIn/Tests/Descriptive Statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\C#\Office\ExcelRAddIn\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\C#\Office\Office365 AddIns\ExcelRAddIn\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84530EFD-059D-40A4-8891-C7076FCFC5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB6CE55-281B-444E-A54F-CE8AC1AFCE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5003AA1E-52FB-411B-9B31-43F0075F6D84}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>library(tidyverse)</t>
   </si>
@@ -229,6 +229,13 @@
   </si>
   <si>
     <t>moduleStatsTests$refClassGenerators</t>
+  </si>
+  <si>
+    <t>library(stats)</t>
+  </si>
+  <si>
+    <t>get_desc_stats &lt;- function(data) {
+}</t>
   </si>
 </sst>
 </file>
@@ -308,9 +315,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -348,7 +355,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -454,7 +461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -596,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -630,10 +637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F63317-D946-4322-9CB8-4E6BA5495368}">
-  <dimension ref="B2:AA13"/>
+  <dimension ref="B2:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,55 +653,61 @@
         <v>0</v>
       </c>
       <c r="D2" t="str" cm="1">
-        <f t="array" ref="D2:T2">TRANSPOSE(_xll.RScript.Evaluate(B2))</f>
+        <f t="array" ref="D2:V2">TRANSPOSE(_xll.RScript.Evaluate(B2))</f>
+        <v>stats</v>
+      </c>
+      <c r="E2" t="str">
+        <v>ggthemes</v>
+      </c>
+      <c r="F2" t="str">
+        <v>forecast</v>
+      </c>
+      <c r="G2" t="str">
         <v>lubridate</v>
       </c>
-      <c r="E2" t="str">
+      <c r="H2" t="str">
         <v>forcats</v>
       </c>
-      <c r="F2" t="str">
+      <c r="I2" t="str">
         <v>stringr</v>
       </c>
-      <c r="G2" t="str">
+      <c r="J2" t="str">
         <v>dplyr</v>
       </c>
-      <c r="H2" t="str">
+      <c r="K2" t="str">
         <v>purrr</v>
       </c>
-      <c r="I2" t="str">
+      <c r="L2" t="str">
         <v>readr</v>
       </c>
-      <c r="J2" t="str">
+      <c r="M2" t="str">
         <v>tidyr</v>
       </c>
-      <c r="K2" t="str">
+      <c r="N2" t="str">
         <v>tibble</v>
       </c>
-      <c r="L2" t="str">
+      <c r="O2" t="str">
         <v>ggplot2</v>
       </c>
-      <c r="M2" t="str">
+      <c r="P2" t="str">
         <v>tidyverse</v>
       </c>
-      <c r="N2" t="str">
-        <v>stats</v>
-      </c>
-      <c r="O2" t="str">
+      <c r="Q2" t="str">
         <v>graphics</v>
       </c>
-      <c r="P2" t="str">
+      <c r="R2" t="str">
         <v>grDevices</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="S2" t="str">
         <v>utils</v>
       </c>
-      <c r="R2" t="str">
+      <c r="T2" t="str">
         <v>datasets</v>
       </c>
-      <c r="S2" t="str">
+      <c r="U2" t="str">
         <v>methods</v>
       </c>
-      <c r="T2" t="str">
+      <c r="V2" t="str">
         <v>base</v>
       </c>
     </row>
@@ -703,77 +716,9 @@
         <v>4</v>
       </c>
       <c r="D3" t="str" cm="1">
-        <f t="array" ref="D3:AA3">TRANSPOSE(_xll.RScript.Evaluate(B3))</f>
-        <v>tsibble</v>
-      </c>
-      <c r="E3" t="str">
-        <v>StatsR</v>
-      </c>
-      <c r="F3" t="str">
-        <v>moments</v>
-      </c>
-      <c r="G3" t="str">
-        <v>summarytools</v>
-      </c>
-      <c r="H3" t="str">
-        <v>formattable</v>
-      </c>
-      <c r="I3" t="str">
-        <v>plotly</v>
-      </c>
-      <c r="J3" t="str">
-        <v>ggpubr</v>
-      </c>
-      <c r="K3" t="str">
-        <v>lubridate</v>
-      </c>
-      <c r="L3" t="str">
-        <v>forcats</v>
-      </c>
-      <c r="M3" t="str">
-        <v>stringr</v>
-      </c>
-      <c r="N3" t="str">
-        <v>dplyr</v>
-      </c>
-      <c r="O3" t="str">
-        <v>purrr</v>
-      </c>
-      <c r="P3" t="str">
-        <v>readr</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>tidyr</v>
-      </c>
-      <c r="R3" t="str">
-        <v>tibble</v>
-      </c>
-      <c r="S3" t="str">
-        <v>ggplot2</v>
-      </c>
-      <c r="T3" t="str">
-        <v>tidyverse</v>
-      </c>
-      <c r="U3" t="str">
-        <v>stats</v>
-      </c>
-      <c r="V3" t="str">
-        <v>graphics</v>
-      </c>
-      <c r="W3" t="str">
-        <v>grDevices</v>
-      </c>
-      <c r="X3" t="str">
-        <v>utils</v>
-      </c>
-      <c r="Y3" t="str">
-        <v>datasets</v>
-      </c>
-      <c r="Z3" t="str">
-        <v>methods</v>
-      </c>
-      <c r="AA3" t="str">
-        <v>base</v>
+        <f t="array" ref="D3">TRANSPOSE(_xll.RScript.Evaluate(B3))</f>
+        <v xml:space="preserve">Exception: Error in library(tsibble) : there is no package called 'tsibble'
+</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.3">
@@ -781,55 +726,61 @@
         <v>5</v>
       </c>
       <c r="D4" t="str" cm="1">
-        <f t="array" ref="D4:T4">TRANSPOSE(_xll.RScript.Evaluate(B4))</f>
+        <f t="array" ref="D4:V4">TRANSPOSE(_xll.RScript.Evaluate(B4))</f>
+        <v>stats</v>
+      </c>
+      <c r="E4" t="str">
+        <v>ggthemes</v>
+      </c>
+      <c r="F4" t="str">
+        <v>forecast</v>
+      </c>
+      <c r="G4" t="str">
         <v>lubridate</v>
       </c>
-      <c r="E4" t="str">
+      <c r="H4" t="str">
         <v>forcats</v>
       </c>
-      <c r="F4" t="str">
+      <c r="I4" t="str">
         <v>stringr</v>
       </c>
-      <c r="G4" t="str">
+      <c r="J4" t="str">
         <v>dplyr</v>
       </c>
-      <c r="H4" t="str">
+      <c r="K4" t="str">
         <v>purrr</v>
       </c>
-      <c r="I4" t="str">
+      <c r="L4" t="str">
         <v>readr</v>
       </c>
-      <c r="J4" t="str">
+      <c r="M4" t="str">
         <v>tidyr</v>
       </c>
-      <c r="K4" t="str">
+      <c r="N4" t="str">
         <v>tibble</v>
       </c>
-      <c r="L4" t="str">
+      <c r="O4" t="str">
         <v>ggplot2</v>
       </c>
-      <c r="M4" t="str">
+      <c r="P4" t="str">
         <v>tidyverse</v>
       </c>
-      <c r="N4" t="str">
-        <v>stats</v>
-      </c>
-      <c r="O4" t="str">
+      <c r="Q4" t="str">
         <v>graphics</v>
       </c>
-      <c r="P4" t="str">
+      <c r="R4" t="str">
         <v>grDevices</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="S4" t="str">
         <v>utils</v>
       </c>
-      <c r="R4" t="str">
+      <c r="T4" t="str">
         <v>datasets</v>
       </c>
-      <c r="S4" t="str">
+      <c r="U4" t="str">
         <v>methods</v>
       </c>
-      <c r="T4" t="str">
+      <c r="V4" t="str">
         <v>base</v>
       </c>
     </row>
@@ -916,58 +867,64 @@
         <v>7</v>
       </c>
       <c r="D6" t="str" cm="1">
-        <f t="array" ref="D6:U6">TRANSPOSE(_xll.RScript.Evaluate(B6))</f>
+        <f t="array" ref="D6:W6">TRANSPOSE(_xll.RScript.Evaluate(B6))</f>
         <v>ggpubr</v>
       </c>
       <c r="E6" t="str">
+        <v>stats</v>
+      </c>
+      <c r="F6" t="str">
+        <v>ggthemes</v>
+      </c>
+      <c r="G6" t="str">
+        <v>forecast</v>
+      </c>
+      <c r="H6" t="str">
         <v>lubridate</v>
       </c>
-      <c r="F6" t="str">
+      <c r="I6" t="str">
         <v>forcats</v>
       </c>
-      <c r="G6" t="str">
+      <c r="J6" t="str">
         <v>stringr</v>
       </c>
-      <c r="H6" t="str">
+      <c r="K6" t="str">
         <v>dplyr</v>
       </c>
-      <c r="I6" t="str">
+      <c r="L6" t="str">
         <v>purrr</v>
       </c>
-      <c r="J6" t="str">
+      <c r="M6" t="str">
         <v>readr</v>
       </c>
-      <c r="K6" t="str">
+      <c r="N6" t="str">
         <v>tidyr</v>
       </c>
-      <c r="L6" t="str">
+      <c r="O6" t="str">
         <v>tibble</v>
       </c>
-      <c r="M6" t="str">
+      <c r="P6" t="str">
         <v>ggplot2</v>
       </c>
-      <c r="N6" t="str">
+      <c r="Q6" t="str">
         <v>tidyverse</v>
       </c>
-      <c r="O6" t="str">
-        <v>stats</v>
-      </c>
-      <c r="P6" t="str">
+      <c r="R6" t="str">
         <v>graphics</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="S6" t="str">
         <v>grDevices</v>
       </c>
-      <c r="R6" t="str">
+      <c r="T6" t="str">
         <v>utils</v>
       </c>
-      <c r="S6" t="str">
+      <c r="U6" t="str">
         <v>datasets</v>
       </c>
-      <c r="T6" t="str">
+      <c r="V6" t="str">
         <v>methods</v>
       </c>
-      <c r="U6" t="str">
+      <c r="W6" t="str">
         <v>base</v>
       </c>
     </row>
@@ -976,61 +933,67 @@
         <v>8</v>
       </c>
       <c r="D7" t="str" cm="1">
-        <f t="array" ref="D7:V7">TRANSPOSE(_xll.RScript.Evaluate(B7))</f>
+        <f t="array" ref="D7:X7">TRANSPOSE(_xll.RScript.Evaluate(B7))</f>
         <v>plotly</v>
       </c>
       <c r="E7" t="str">
         <v>ggpubr</v>
       </c>
       <c r="F7" t="str">
+        <v>stats</v>
+      </c>
+      <c r="G7" t="str">
+        <v>ggthemes</v>
+      </c>
+      <c r="H7" t="str">
+        <v>forecast</v>
+      </c>
+      <c r="I7" t="str">
         <v>lubridate</v>
       </c>
-      <c r="G7" t="str">
+      <c r="J7" t="str">
         <v>forcats</v>
       </c>
-      <c r="H7" t="str">
+      <c r="K7" t="str">
         <v>stringr</v>
       </c>
-      <c r="I7" t="str">
+      <c r="L7" t="str">
         <v>dplyr</v>
       </c>
-      <c r="J7" t="str">
+      <c r="M7" t="str">
         <v>purrr</v>
       </c>
-      <c r="K7" t="str">
+      <c r="N7" t="str">
         <v>readr</v>
       </c>
-      <c r="L7" t="str">
+      <c r="O7" t="str">
         <v>tidyr</v>
       </c>
-      <c r="M7" t="str">
+      <c r="P7" t="str">
         <v>tibble</v>
       </c>
-      <c r="N7" t="str">
+      <c r="Q7" t="str">
         <v>ggplot2</v>
       </c>
-      <c r="O7" t="str">
+      <c r="R7" t="str">
         <v>tidyverse</v>
       </c>
-      <c r="P7" t="str">
-        <v>stats</v>
-      </c>
-      <c r="Q7" t="str">
+      <c r="S7" t="str">
         <v>graphics</v>
       </c>
-      <c r="R7" t="str">
+      <c r="T7" t="str">
         <v>grDevices</v>
       </c>
-      <c r="S7" t="str">
+      <c r="U7" t="str">
         <v>utils</v>
       </c>
-      <c r="T7" t="str">
+      <c r="V7" t="str">
         <v>datasets</v>
       </c>
-      <c r="U7" t="str">
+      <c r="W7" t="str">
         <v>methods</v>
       </c>
-      <c r="V7" t="str">
+      <c r="X7" t="str">
         <v>base</v>
       </c>
     </row>
@@ -1039,61 +1002,67 @@
         <v>9</v>
       </c>
       <c r="D8" t="str" cm="1">
-        <f t="array" ref="D8:V8">TRANSPOSE(_xll.RScript.Evaluate(B8))</f>
+        <f t="array" ref="D8:X8">TRANSPOSE(_xll.RScript.Evaluate(B8))</f>
         <v>plotly</v>
       </c>
       <c r="E8" t="str">
         <v>ggpubr</v>
       </c>
       <c r="F8" t="str">
+        <v>stats</v>
+      </c>
+      <c r="G8" t="str">
+        <v>ggthemes</v>
+      </c>
+      <c r="H8" t="str">
+        <v>forecast</v>
+      </c>
+      <c r="I8" t="str">
         <v>lubridate</v>
       </c>
-      <c r="G8" t="str">
+      <c r="J8" t="str">
         <v>forcats</v>
       </c>
-      <c r="H8" t="str">
+      <c r="K8" t="str">
         <v>stringr</v>
       </c>
-      <c r="I8" t="str">
+      <c r="L8" t="str">
         <v>dplyr</v>
       </c>
-      <c r="J8" t="str">
+      <c r="M8" t="str">
         <v>purrr</v>
       </c>
-      <c r="K8" t="str">
+      <c r="N8" t="str">
         <v>readr</v>
       </c>
-      <c r="L8" t="str">
+      <c r="O8" t="str">
         <v>tidyr</v>
       </c>
-      <c r="M8" t="str">
+      <c r="P8" t="str">
         <v>tibble</v>
       </c>
-      <c r="N8" t="str">
+      <c r="Q8" t="str">
         <v>ggplot2</v>
       </c>
-      <c r="O8" t="str">
+      <c r="R8" t="str">
         <v>tidyverse</v>
       </c>
-      <c r="P8" t="str">
-        <v>stats</v>
-      </c>
-      <c r="Q8" t="str">
+      <c r="S8" t="str">
         <v>graphics</v>
       </c>
-      <c r="R8" t="str">
+      <c r="T8" t="str">
         <v>grDevices</v>
       </c>
-      <c r="S8" t="str">
+      <c r="U8" t="str">
         <v>utils</v>
       </c>
-      <c r="T8" t="str">
+      <c r="V8" t="str">
         <v>datasets</v>
       </c>
-      <c r="U8" t="str">
+      <c r="W8" t="str">
         <v>methods</v>
       </c>
-      <c r="V8" t="str">
+      <c r="X8" t="str">
         <v>base</v>
       </c>
     </row>
@@ -1102,65 +1071,9 @@
         <v>10</v>
       </c>
       <c r="D9" t="str" cm="1">
-        <f t="array" ref="D9:W9">TRANSPOSE(_xll.RScript.Evaluate(B9))</f>
-        <v>formattable</v>
-      </c>
-      <c r="E9" t="str">
-        <v>plotly</v>
-      </c>
-      <c r="F9" t="str">
-        <v>ggpubr</v>
-      </c>
-      <c r="G9" t="str">
-        <v>lubridate</v>
-      </c>
-      <c r="H9" t="str">
-        <v>forcats</v>
-      </c>
-      <c r="I9" t="str">
-        <v>stringr</v>
-      </c>
-      <c r="J9" t="str">
-        <v>dplyr</v>
-      </c>
-      <c r="K9" t="str">
-        <v>purrr</v>
-      </c>
-      <c r="L9" t="str">
-        <v>readr</v>
-      </c>
-      <c r="M9" t="str">
-        <v>tidyr</v>
-      </c>
-      <c r="N9" t="str">
-        <v>tibble</v>
-      </c>
-      <c r="O9" t="str">
-        <v>ggplot2</v>
-      </c>
-      <c r="P9" t="str">
-        <v>tidyverse</v>
-      </c>
-      <c r="Q9" t="str">
-        <v>stats</v>
-      </c>
-      <c r="R9" t="str">
-        <v>graphics</v>
-      </c>
-      <c r="S9" t="str">
-        <v>grDevices</v>
-      </c>
-      <c r="T9" t="str">
-        <v>utils</v>
-      </c>
-      <c r="U9" t="str">
-        <v>datasets</v>
-      </c>
-      <c r="V9" t="str">
-        <v>methods</v>
-      </c>
-      <c r="W9" t="str">
-        <v>base</v>
+        <f t="array" ref="D9">TRANSPOSE(_xll.RScript.Evaluate(B9))</f>
+        <v xml:space="preserve">Exception: Error in library(formattable) : there is no package called 'formattable'
+</v>
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.3">
@@ -1168,67 +1081,70 @@
         <v>11</v>
       </c>
       <c r="D10" t="str" cm="1">
-        <f t="array" ref="D10:X10">TRANSPOSE(_xll.RScript.Evaluate(B10))</f>
+        <f t="array" ref="D10:Y10">TRANSPOSE(_xll.RScript.Evaluate(B10))</f>
         <v>summarytools</v>
       </c>
       <c r="E10" t="str">
-        <v>formattable</v>
+        <v>plotly</v>
       </c>
       <c r="F10" t="str">
-        <v>plotly</v>
+        <v>ggpubr</v>
       </c>
       <c r="G10" t="str">
-        <v>ggpubr</v>
+        <v>stats</v>
       </c>
       <c r="H10" t="str">
+        <v>ggthemes</v>
+      </c>
+      <c r="I10" t="str">
+        <v>forecast</v>
+      </c>
+      <c r="J10" t="str">
         <v>lubridate</v>
       </c>
-      <c r="I10" t="str">
+      <c r="K10" t="str">
         <v>forcats</v>
       </c>
-      <c r="J10" t="str">
+      <c r="L10" t="str">
         <v>stringr</v>
       </c>
-      <c r="K10" t="str">
+      <c r="M10" t="str">
         <v>dplyr</v>
       </c>
-      <c r="L10" t="str">
+      <c r="N10" t="str">
         <v>purrr</v>
       </c>
-      <c r="M10" t="str">
+      <c r="O10" t="str">
         <v>readr</v>
       </c>
-      <c r="N10" t="str">
+      <c r="P10" t="str">
         <v>tidyr</v>
       </c>
-      <c r="O10" t="str">
+      <c r="Q10" t="str">
         <v>tibble</v>
       </c>
-      <c r="P10" t="str">
+      <c r="R10" t="str">
         <v>ggplot2</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="S10" t="str">
         <v>tidyverse</v>
       </c>
-      <c r="R10" t="str">
-        <v>stats</v>
-      </c>
-      <c r="S10" t="str">
+      <c r="T10" t="str">
         <v>graphics</v>
       </c>
-      <c r="T10" t="str">
+      <c r="U10" t="str">
         <v>grDevices</v>
       </c>
-      <c r="U10" t="str">
+      <c r="V10" t="str">
         <v>utils</v>
       </c>
-      <c r="V10" t="str">
+      <c r="W10" t="str">
         <v>datasets</v>
       </c>
-      <c r="W10" t="str">
+      <c r="X10" t="str">
         <v>methods</v>
       </c>
-      <c r="X10" t="str">
+      <c r="Y10" t="str">
         <v>base</v>
       </c>
     </row>
@@ -1237,70 +1153,73 @@
         <v>12</v>
       </c>
       <c r="D11" t="str" cm="1">
-        <f t="array" ref="D11:Y11">TRANSPOSE(_xll.RScript.Evaluate(B11))</f>
+        <f t="array" ref="D11:Z11">TRANSPOSE(_xll.RScript.Evaluate(B11))</f>
         <v>moments</v>
       </c>
       <c r="E11" t="str">
         <v>summarytools</v>
       </c>
       <c r="F11" t="str">
-        <v>formattable</v>
+        <v>plotly</v>
       </c>
       <c r="G11" t="str">
-        <v>plotly</v>
+        <v>ggpubr</v>
       </c>
       <c r="H11" t="str">
-        <v>ggpubr</v>
+        <v>stats</v>
       </c>
       <c r="I11" t="str">
+        <v>ggthemes</v>
+      </c>
+      <c r="J11" t="str">
+        <v>forecast</v>
+      </c>
+      <c r="K11" t="str">
         <v>lubridate</v>
       </c>
-      <c r="J11" t="str">
+      <c r="L11" t="str">
         <v>forcats</v>
       </c>
-      <c r="K11" t="str">
+      <c r="M11" t="str">
         <v>stringr</v>
       </c>
-      <c r="L11" t="str">
+      <c r="N11" t="str">
         <v>dplyr</v>
       </c>
-      <c r="M11" t="str">
+      <c r="O11" t="str">
         <v>purrr</v>
       </c>
-      <c r="N11" t="str">
+      <c r="P11" t="str">
         <v>readr</v>
       </c>
-      <c r="O11" t="str">
+      <c r="Q11" t="str">
         <v>tidyr</v>
       </c>
-      <c r="P11" t="str">
+      <c r="R11" t="str">
         <v>tibble</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="S11" t="str">
         <v>ggplot2</v>
       </c>
-      <c r="R11" t="str">
+      <c r="T11" t="str">
         <v>tidyverse</v>
       </c>
-      <c r="S11" t="str">
-        <v>stats</v>
-      </c>
-      <c r="T11" t="str">
+      <c r="U11" t="str">
         <v>graphics</v>
       </c>
-      <c r="U11" t="str">
+      <c r="V11" t="str">
         <v>grDevices</v>
       </c>
-      <c r="V11" t="str">
+      <c r="W11" t="str">
         <v>utils</v>
       </c>
-      <c r="W11" t="str">
+      <c r="X11" t="str">
         <v>datasets</v>
       </c>
-      <c r="X11" t="str">
+      <c r="Y11" t="str">
         <v>methods</v>
       </c>
-      <c r="Y11" t="str">
+      <c r="Z11" t="str">
         <v>base</v>
       </c>
     </row>
@@ -1309,74 +1228,9 @@
         <v>13</v>
       </c>
       <c r="D12" t="str" cm="1">
-        <f t="array" ref="D12:Z12">TRANSPOSE(_xll.RScript.Evaluate(B12))</f>
-        <v>StatsR</v>
-      </c>
-      <c r="E12" t="str">
-        <v>moments</v>
-      </c>
-      <c r="F12" t="str">
-        <v>summarytools</v>
-      </c>
-      <c r="G12" t="str">
-        <v>formattable</v>
-      </c>
-      <c r="H12" t="str">
-        <v>plotly</v>
-      </c>
-      <c r="I12" t="str">
-        <v>ggpubr</v>
-      </c>
-      <c r="J12" t="str">
-        <v>lubridate</v>
-      </c>
-      <c r="K12" t="str">
-        <v>forcats</v>
-      </c>
-      <c r="L12" t="str">
-        <v>stringr</v>
-      </c>
-      <c r="M12" t="str">
-        <v>dplyr</v>
-      </c>
-      <c r="N12" t="str">
-        <v>purrr</v>
-      </c>
-      <c r="O12" t="str">
-        <v>readr</v>
-      </c>
-      <c r="P12" t="str">
-        <v>tidyr</v>
-      </c>
-      <c r="Q12" t="str">
-        <v>tibble</v>
-      </c>
-      <c r="R12" t="str">
-        <v>ggplot2</v>
-      </c>
-      <c r="S12" t="str">
-        <v>tidyverse</v>
-      </c>
-      <c r="T12" t="str">
-        <v>stats</v>
-      </c>
-      <c r="U12" t="str">
-        <v>graphics</v>
-      </c>
-      <c r="V12" t="str">
-        <v>grDevices</v>
-      </c>
-      <c r="W12" t="str">
-        <v>utils</v>
-      </c>
-      <c r="X12" t="str">
-        <v>datasets</v>
-      </c>
-      <c r="Y12" t="str">
-        <v>methods</v>
-      </c>
-      <c r="Z12" t="str">
-        <v>base</v>
+        <f t="array" ref="D12">TRANSPOSE(_xll.RScript.Evaluate(B12))</f>
+        <v xml:space="preserve">Exception: Error in library(StatsR) : there is no package called 'StatsR'
+</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.3">
@@ -1384,26 +1238,26 @@
         <v>1</v>
       </c>
       <c r="D13" t="str" cm="1">
-        <f t="array" ref="D13:AA13">TRANSPOSE(_xll.RScript.Evaluate(B13))</f>
-        <v>tsibble</v>
+        <f t="array" ref="D13:Z13">TRANSPOSE(_xll.RScript.Evaluate(B13))</f>
+        <v>moments</v>
       </c>
       <c r="E13" t="str">
-        <v>StatsR</v>
+        <v>summarytools</v>
       </c>
       <c r="F13" t="str">
-        <v>moments</v>
+        <v>plotly</v>
       </c>
       <c r="G13" t="str">
-        <v>summarytools</v>
+        <v>ggpubr</v>
       </c>
       <c r="H13" t="str">
-        <v>formattable</v>
+        <v>stats</v>
       </c>
       <c r="I13" t="str">
-        <v>plotly</v>
+        <v>ggthemes</v>
       </c>
       <c r="J13" t="str">
-        <v>ggpubr</v>
+        <v>forecast</v>
       </c>
       <c r="K13" t="str">
         <v>lubridate</v>
@@ -1436,24 +1290,96 @@
         <v>tidyverse</v>
       </c>
       <c r="U13" t="str">
+        <v>graphics</v>
+      </c>
+      <c r="V13" t="str">
+        <v>grDevices</v>
+      </c>
+      <c r="W13" t="str">
+        <v>utils</v>
+      </c>
+      <c r="X13" t="str">
+        <v>datasets</v>
+      </c>
+      <c r="Y13" t="str">
+        <v>methods</v>
+      </c>
+      <c r="Z13" t="str">
+        <v>base</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="str" cm="1">
+        <f t="array" ref="D15:Z15">TRANSPOSE(_xll.RScript.Evaluate(B15))</f>
+        <v>moments</v>
+      </c>
+      <c r="E15" t="str">
+        <v>summarytools</v>
+      </c>
+      <c r="F15" t="str">
+        <v>plotly</v>
+      </c>
+      <c r="G15" t="str">
+        <v>ggpubr</v>
+      </c>
+      <c r="H15" t="str">
         <v>stats</v>
       </c>
-      <c r="V13" t="str">
+      <c r="I15" t="str">
+        <v>ggthemes</v>
+      </c>
+      <c r="J15" t="str">
+        <v>forecast</v>
+      </c>
+      <c r="K15" t="str">
+        <v>lubridate</v>
+      </c>
+      <c r="L15" t="str">
+        <v>forcats</v>
+      </c>
+      <c r="M15" t="str">
+        <v>stringr</v>
+      </c>
+      <c r="N15" t="str">
+        <v>dplyr</v>
+      </c>
+      <c r="O15" t="str">
+        <v>purrr</v>
+      </c>
+      <c r="P15" t="str">
+        <v>readr</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>tidyr</v>
+      </c>
+      <c r="R15" t="str">
+        <v>tibble</v>
+      </c>
+      <c r="S15" t="str">
+        <v>ggplot2</v>
+      </c>
+      <c r="T15" t="str">
+        <v>tidyverse</v>
+      </c>
+      <c r="U15" t="str">
         <v>graphics</v>
       </c>
-      <c r="W13" t="str">
+      <c r="V15" t="str">
         <v>grDevices</v>
       </c>
-      <c r="X13" t="str">
+      <c r="W15" t="str">
         <v>utils</v>
       </c>
-      <c r="Y13" t="str">
+      <c r="X15" t="str">
         <v>datasets</v>
       </c>
-      <c r="Z13" t="str">
+      <c r="Y15" t="str">
         <v>methods</v>
       </c>
-      <c r="AA13" t="str">
+      <c r="Z15" t="str">
         <v>base</v>
       </c>
     </row>
@@ -1464,15 +1390,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36AF5B5-0B8A-454D-89D2-3C728DCD4384}">
-  <dimension ref="B2:G41"/>
+  <dimension ref="B2:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.77734375" customWidth="1"/>
+    <col min="2" max="2" width="72.44140625" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
@@ -1703,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D33" t="str">
         <v>Kurtosis</v>
       </c>
@@ -1717,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D34" t="str">
         <v>Range</v>
       </c>
@@ -1731,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D35" t="str">
         <v>Variance.S</v>
       </c>
@@ -1745,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D36" t="str">
         <v>StdErr</v>
       </c>
@@ -1759,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D37" t="str">
         <v>Median</v>
       </c>
@@ -1773,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D38" t="str">
         <v>Minimum</v>
       </c>
@@ -1787,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D39" t="str">
         <v>Mean</v>
       </c>
@@ -1801,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D40" t="str">
         <v>Maximum</v>
       </c>
@@ -1815,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D41" t="str">
         <v>Count</v>
       </c>
@@ -1827,6 +1753,11 @@
       </c>
       <c r="G41" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
